--- a/biology/Histoire de la zoologie et de la botanique/Joseph_Poucel/Joseph_Poucel.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Joseph_Poucel/Joseph_Poucel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Joseph Poucel (Marseille, 16 juin 1878 - Marseille, 23 avril 1971)[1] est un médecin marseillais, réputé pour ses travaux sur l'hygiénisme et la botanique[2], également connu comme l'un des pionniers du naturisme en Provence.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Joseph Poucel (Marseille, 16 juin 1878 - Marseille, 23 avril 1971) est un médecin marseillais, réputé pour ses travaux sur l'hygiénisme et la botanique, également connu comme l'un des pionniers du naturisme en Provence.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Né à Marseille, Jean Poucel a été chirurgien-chef des hôpitaux de cette ville[2]. Hygiéniste convaincu, il fonde, avec le docteur Casabianca, la société naturiste de Marseille, en 1932[3]. En 1935, il crée un département de Chirurgie infantile à l'Infirmerie protestante de Marseille[4]. 
-Excellent botaniste, il réalise plusieurs milliers de planches qui ont été conservées à la Faculté des Sciences de Marseille[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Né à Marseille, Jean Poucel a été chirurgien-chef des hôpitaux de cette ville. Hygiéniste convaincu, il fonde, avec le docteur Casabianca, la société naturiste de Marseille, en 1932. En 1935, il crée un département de Chirurgie infantile à l'Infirmerie protestante de Marseille. 
+Excellent botaniste, il réalise plusieurs milliers de planches qui ont été conservées à la Faculté des Sciences de Marseille.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Postérité et hommages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1972, peu après le centième anniversaire de sa naissance, une plaque commémorative a été scellée dans un rocher sur le « sentier merveilleux » de la Sainte-Baume[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1972, peu après le centième anniversaire de sa naissance, une plaque commémorative a été scellée dans un rocher sur le « sentier merveilleux » de la Sainte-Baume.
 Une rue du 4e arrondissement de Marseille porte son nom.
 </t>
         </is>
@@ -575,11 +591,13 @@
           <t>Études et publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>La psychothérapie dans l'intervention chirurgicale, 1904
 Le transformisme jugé par le naturaliste J.-H. Fabre, Paris, Maison de la bonne presse, 1912.
-A la découverte des orchidées de France, Editions Stock, 1942[6]
+A la découverte des orchidées de France, Editions Stock, 1942
 L'Art de dormir
 Au hasard des sentiers
 Méthodes naturelles et santé, 1967</t>
